--- a/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
+++ b/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariz\Desktop\Variáveis marianne FINAL\hydgn\BHPSbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\hydgn\BHPSbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2A41EB-2125-425E-A269-42F7FDA5CA14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19308" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BHPSbP" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>BHPSbP BAU Hydrogen Production Shares by Pathway</t>
   </si>
@@ -57,41 +48,50 @@
     <t>biomass gasification</t>
   </si>
   <si>
+    <t>U.S. Department of Energy Fuel Cell Technologies Office</t>
+  </si>
+  <si>
+    <t>Hydrogen Production Processes</t>
+  </si>
+  <si>
+    <t>https://www.energy.gov/eere/fuelcells/hydrogen-production-processes</t>
+  </si>
+  <si>
+    <t>See sub-pages for each process, particularly "natural gas reforming"</t>
+  </si>
+  <si>
+    <t>For international (global) statistics, see:</t>
+  </si>
+  <si>
+    <t>International Energy Agency</t>
+  </si>
+  <si>
+    <t>Hydrogen Production</t>
+  </si>
+  <si>
+    <t>https://www.iea.org/topics/hydrogen/production/</t>
+  </si>
+  <si>
+    <t>coal gasification (mostly located in China)</t>
+  </si>
+  <si>
+    <t>International values:</t>
+  </si>
+  <si>
+    <t>We assume today's shares are constant in the BAU case.</t>
+  </si>
+  <si>
     <t>thermochemical water splitting</t>
   </si>
   <si>
     <t>Production Share (dimensionless)</t>
-  </si>
-  <si>
-    <t>Alexandre Salem Szklo, Victor Cohen Uller, Marcio Henrique P. Bonfá</t>
-  </si>
-  <si>
-    <t>3rd Edition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Brazil, natural gas reforming is the only method used to produce hydrogen. </t>
-  </si>
-  <si>
-    <t>FUNDAMENTOS DO REFINO DE PETRÓLEO: Tecnologia e Economia</t>
-  </si>
-  <si>
-    <t>FUNDAMENTALS OF OIL REFINING: Technology and Economy</t>
-  </si>
-  <si>
-    <t>page 68</t>
-  </si>
-  <si>
-    <t>Hydrogen production share:</t>
-  </si>
-  <si>
-    <t>Pathway</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,14 +111,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,26 +137,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -442,996 +427,937 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>0.02</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>0.76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <f>0.22</f>
+        <v>0.22</v>
+      </c>
+      <c r="B24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B19" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="30.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2">
-        <v>2015</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="C1">
+        <v>2018</v>
       </c>
       <c r="D1" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F1" s="2">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="H1" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="I1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="J1" s="2">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="K1">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="L1" s="2">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="M1">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="N1" s="2">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="O1">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="P1" s="2">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="Q1">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="R1" s="2">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="S1">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="T1" s="2">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="U1">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="V1" s="2">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="W1">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="X1" s="2">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="Y1">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="Z1" s="2">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="AA1">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c r="AB1" s="2">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="AC1">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="AD1" s="2">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="AE1">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="AF1" s="2">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="AG1">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="AH1" s="2">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="AI1">
-        <v>2048</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>2049</v>
-      </c>
-      <c r="AK1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f>$B2</f>
+        <v>0.05</v>
       </c>
       <c r="D2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" ref="D2:AI6" si="0">$B2</f>
+        <v>0.05</v>
       </c>
       <c r="E2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="F2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="G2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="H2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="I2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="J2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="K2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="L2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="M2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="N2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="O2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="P2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="Q2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="R2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="S2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="T2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="U2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="V2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="W2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="X2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="Y2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="Z2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="AA2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="AB2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="AC2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="AD2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="AE2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="AF2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="AG2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="AH2">
-        <f>About!$D13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="AI2">
-        <f>About!$D13</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>About!$D13</f>
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <f>About!$D13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" ref="C3:R6" si="1">$B3</f>
+        <v>0.95</v>
       </c>
       <c r="D3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="E3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="F3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="G3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="H3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="I3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="J3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="K3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="L3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="M3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="N3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="O3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="P3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="Q3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="R3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="S3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="T3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="U3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="V3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="W3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="X3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="Y3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="Z3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="AA3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="AB3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="AC3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="AD3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="AE3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="AF3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="AG3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="AH3">
-        <f>About!$D14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="AI3">
-        <f>About!$D14</f>
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <f>About!$D14</f>
-        <v>1</v>
-      </c>
-      <c r="AK3">
-        <f>About!$D14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <f>About!$D15</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>About!$D15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f>About!$D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>About!$D15</f>
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <f>About!$D15</f>
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <f>About!$D15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <f>About!$D16</f>
         <v>0</v>
       </c>
       <c r="C5">
-        <f>About!$D16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH5">
-        <f>About!$D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f>About!$D16</f>
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <f>About!$D16</f>
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <f>About!$D16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <f>About!$D17</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <f>About!$D17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f>About!$D17</f>
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <f>About!$D17</f>
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <f>About!$D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
